--- a/public/assets/excels/template-upload-nilai.xlsx
+++ b/public/assets/excels/template-upload-nilai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qlokappsdev/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A6E75-E9AB-094A-929E-82CFBFAEB008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA74E3B-AF26-0A4C-A22A-B1A27F469B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{399EEE53-8C49-A94E-8DE2-86E644C20404}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{399EEE53-8C49-A94E-8DE2-86E644C20404}"/>
   </bookViews>
   <sheets>
     <sheet name="Nilai" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
-  <si>
-    <t>MUHAMAD MISBAHUL FAROJ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>code</t>
   </si>
@@ -52,186 +49,51 @@
     <t>Semester 1</t>
   </si>
   <si>
-    <t xml:space="preserve">MATA4101 </t>
-  </si>
-  <si>
-    <t>PENGANTAR MATEMATIKA</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>MATA4110</t>
-  </si>
-  <si>
-    <t>KALKULUS I</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>MKWU4101</t>
-  </si>
-  <si>
-    <t>PENDIDIKAN AGAMA ISLAM</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>MKWU4108</t>
   </si>
   <si>
-    <t>BAHASA INDONESIA</t>
-  </si>
-  <si>
     <t>B-</t>
   </si>
   <si>
     <t>MKWU4109</t>
   </si>
   <si>
-    <t>PENDIDIKAN KEWARGANEGARAAN</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>MSIM4101</t>
-  </si>
-  <si>
-    <t>PENGANTAR SISTEM INFORMASI</t>
-  </si>
-  <si>
     <t>Semester 2</t>
   </si>
   <si>
     <t>EKMA4111</t>
   </si>
   <si>
-    <t>PENGANTAR BISNIS</t>
-  </si>
-  <si>
     <t>EKMA4116</t>
   </si>
   <si>
-    <t>MANAJEMEN</t>
-  </si>
-  <si>
-    <t>MATA4112</t>
-  </si>
-  <si>
-    <t>ALJABAR LINEAR ELEMENTER I</t>
-  </si>
-  <si>
-    <t>MKWI4201</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS</t>
-  </si>
-  <si>
-    <t>MSIM4103</t>
-  </si>
-  <si>
-    <t>LOGIKA INFORMATIKA</t>
-  </si>
-  <si>
-    <t>SATS4111</t>
-  </si>
-  <si>
-    <t>KOMPUTER I</t>
-  </si>
-  <si>
     <t>Semester 3</t>
   </si>
   <si>
-    <t>ADPU4341</t>
-  </si>
-  <si>
-    <t>TEORI ORGANISASI</t>
-  </si>
-  <si>
-    <t>BING4102</t>
-  </si>
-  <si>
-    <t>READING I</t>
-  </si>
-  <si>
     <t>EKMA4158</t>
   </si>
   <si>
-    <t>PERILAKU ORGANISASI</t>
-  </si>
-  <si>
     <t>C-</t>
   </si>
   <si>
-    <t>MSIM4201</t>
-  </si>
-  <si>
-    <t>SISTEM OPERASI</t>
-  </si>
-  <si>
-    <t>MSIM4202</t>
-  </si>
-  <si>
-    <t>STRUKTUR DATA</t>
-  </si>
-  <si>
-    <t>SATS4121</t>
-  </si>
-  <si>
-    <t>METODE STATISTIK I</t>
-  </si>
-  <si>
     <t>Semester 4</t>
   </si>
   <si>
-    <t>MSIM4203</t>
-  </si>
-  <si>
-    <t>ALGORITMA DAN PEMROGRAMAN</t>
-  </si>
-  <si>
-    <t>MSIM4204</t>
-  </si>
-  <si>
-    <t>JARINGAN KOMPUTER</t>
-  </si>
-  <si>
-    <t>MSIM4205</t>
-  </si>
-  <si>
-    <t>PROSES BISNIS</t>
-  </si>
-  <si>
-    <t>MSIM4206</t>
-  </si>
-  <si>
-    <t>BASIS DATA</t>
-  </si>
-  <si>
-    <t>MSIM4207</t>
-  </si>
-  <si>
-    <t>INTERAKSI MANUSIA DAN KOMPUTER</t>
-  </si>
-  <si>
     <t>Semester 5</t>
   </si>
   <si>
-    <t>MSIM4301</t>
-  </si>
-  <si>
-    <t>PEMROGRAMAN BERBASIS DESKTOP</t>
-  </si>
-  <si>
-    <t>MSIM4302</t>
-  </si>
-  <si>
-    <t>ANALISIS DAN PERANCANGAN SISTEM</t>
-  </si>
-  <si>
     <t>Semester 6</t>
   </si>
   <si>
@@ -241,12 +103,6 @@
     <t>Semester 8</t>
   </si>
   <si>
-    <t>MSIM4408</t>
-  </si>
-  <si>
-    <t>ETIKA PROFESI</t>
-  </si>
-  <si>
     <t>nim</t>
   </si>
   <si>
@@ -256,7 +112,199 @@
     <t>major</t>
   </si>
   <si>
-    <t>Sistem Informasi</t>
+    <t>ADISTI PUSPITA SARI</t>
+  </si>
+  <si>
+    <t>Akuntansi</t>
+  </si>
+  <si>
+    <t>Pengantar Bisnis</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>EKMA4115</t>
+  </si>
+  <si>
+    <t>Pengantar Akuntansi</t>
+  </si>
+  <si>
+    <t>ESPA4122</t>
+  </si>
+  <si>
+    <t>Matematika Ekonomi</t>
+  </si>
+  <si>
+    <t>MKWU4103</t>
+  </si>
+  <si>
+    <t>Pendidikan Agama Kristen</t>
+  </si>
+  <si>
+    <t>Bahasa Indonesia</t>
+  </si>
+  <si>
+    <t>Pendidikan Kewarganegaraan</t>
+  </si>
+  <si>
+    <t>Manajemen</t>
+  </si>
+  <si>
+    <t>Perilaku Organisasi</t>
+  </si>
+  <si>
+    <t>EKMA4216</t>
+  </si>
+  <si>
+    <t>Manajemen Pemasaran</t>
+  </si>
+  <si>
+    <t>EKSI4101</t>
+  </si>
+  <si>
+    <t>Laboratorium Pengantar Akuntansi</t>
+  </si>
+  <si>
+    <t>EKSI4202</t>
+  </si>
+  <si>
+    <t>Hukum Pajak</t>
+  </si>
+  <si>
+    <t>ESPA4110</t>
+  </si>
+  <si>
+    <t>Pengantar Ekonomi Makro</t>
+  </si>
+  <si>
+    <t>ADBI4201</t>
+  </si>
+  <si>
+    <t>Bahasa Inggris Niaga</t>
+  </si>
+  <si>
+    <t>EKMA4210</t>
+  </si>
+  <si>
+    <t>Akuntansi Keuangan Menengah I</t>
+  </si>
+  <si>
+    <t>EKMA4214</t>
+  </si>
+  <si>
+    <t>Manajemen Sumber Daya Manusia</t>
+  </si>
+  <si>
+    <t>EKMA4315</t>
+  </si>
+  <si>
+    <t>Akuntansi Biaya</t>
+  </si>
+  <si>
+    <t>ESPA4111</t>
+  </si>
+  <si>
+    <t>Pengantar Ekonomi Mikro</t>
+  </si>
+  <si>
+    <t>ESPA4123</t>
+  </si>
+  <si>
+    <t>Statistika Ekonomi</t>
+  </si>
+  <si>
+    <t>EKMA4213</t>
+  </si>
+  <si>
+    <t>Manajemen Keuangan</t>
+  </si>
+  <si>
+    <t>EKMA4434</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Manajemen</t>
+  </si>
+  <si>
+    <t>EKMA4570</t>
+  </si>
+  <si>
+    <t>Penganggaran</t>
+  </si>
+  <si>
+    <t>EKSI4205</t>
+  </si>
+  <si>
+    <t>Bank &amp; Lembaga Keuangan Non Bank</t>
+  </si>
+  <si>
+    <t>EKSI4308</t>
+  </si>
+  <si>
+    <t>Auditing I</t>
+  </si>
+  <si>
+    <t>ESPA4314</t>
+  </si>
+  <si>
+    <t>Perekonomian Indonesia</t>
+  </si>
+  <si>
+    <t>EKMA4159</t>
+  </si>
+  <si>
+    <t>Komunikasi Bisnis</t>
+  </si>
+  <si>
+    <t>EKMA4314</t>
+  </si>
+  <si>
+    <t>Akuntansi Manajemen</t>
+  </si>
+  <si>
+    <t>EKSI4207</t>
+  </si>
+  <si>
+    <t>Akuntansi Sektor Publik</t>
+  </si>
+  <si>
+    <t>EKSI4309</t>
+  </si>
+  <si>
+    <t>Akuntansi Keuangan Lanjutan I</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>EKSI4204</t>
+  </si>
+  <si>
+    <t>Analisis Informasi Keuangan</t>
+  </si>
+  <si>
+    <t>EKSI4312</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Akuntansi</t>
+  </si>
+  <si>
+    <t>EKSI4414</t>
+  </si>
+  <si>
+    <t>Laboratorium Auditing</t>
+  </si>
+  <si>
+    <t>EKSI4415</t>
+  </si>
+  <si>
+    <t>Teori Akuntansi</t>
+  </si>
+  <si>
+    <t>EKSI4310</t>
+  </si>
+  <si>
+    <t>Auditing II</t>
   </si>
 </sst>
 </file>
@@ -266,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,11 +327,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
     </font>
     <font>
       <sz val="12"/>
@@ -401,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,28 +452,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,15 +795,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBCDDC3-700E-9143-8A25-81F19157BE56}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.1640625" style="1" customWidth="1"/>
@@ -774,157 +811,157 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2023.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2023.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2023.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -932,7 +969,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -940,137 +977,137 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>2023.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
         <v>12</v>
       </c>
-      <c r="F16" s="2">
-        <v>2023.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2">
-        <v>9</v>
-      </c>
       <c r="F17" s="2">
-        <v>2023.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1078,7 +1115,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1086,137 +1123,137 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2">
         <v>12</v>
       </c>
       <c r="F25" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1224,7 +1261,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1232,125 +1269,137 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
         <v>12</v>
       </c>
       <c r="F31" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
         <v>12</v>
       </c>
       <c r="F33" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1358,7 +1407,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1366,73 +1415,97 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
         <v>12</v>
       </c>
       <c r="F39" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>2023.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2">
-        <v>2023.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1440,7 +1513,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1448,7 +1521,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1456,7 +1529,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1464,239 +1537,287 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="7">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2">
         <v>2</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="7">
-        <v>6</v>
-      </c>
-      <c r="F66" s="2">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2024.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1718,36 +1839,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7198E2-241B-5A43-A123-08ED45EBB9A1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>51103713</v>
+        <v>45063527</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
